--- a/pybrops/test/breed/prot/sel/test_status.xlsx
+++ b/pybrops/test/breed/prot/sel/test_status.xlsx
@@ -143,6 +143,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -165,12 +166,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,32 +218,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,1280 +271,1568 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="1" width="9.73"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="b">
+      <c r="B3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4" t="b">
+      <c r="B4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="b">
+      <c r="B5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="b">
+      <c r="B6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4" t="b">
+      <c r="B7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4" t="b">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="b">
+      <c r="B9" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="b">
+      <c r="B10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4" t="b">
+      <c r="B11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4" t="b">
+      <c r="B12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4" t="b">
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4" t="b">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4" t="b">
+      <c r="B15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4" t="b">
+      <c r="B16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4" t="b">
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4" t="b">
+      <c r="B18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4" t="b">
+      <c r="B19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4" t="b">
+      <c r="B20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4" t="b">
+      <c r="B21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4" t="b">
+      <c r="B22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
+    <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
-    <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="b">
+      <c r="B26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="B27" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="B28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>15</v>
       </c>
     </row>
